--- a/ChannelCoding/Errorprobability.xlsx
+++ b/ChannelCoding/Errorprobability.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Homesystem\ChannelCoding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA088E6-E6B3-4558-BA3E-3DD30465B1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10560"/>
+    <workbookView xWindow="1980" yWindow="1245" windowWidth="26250" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +99,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -158,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -192,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,16 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -396,18 +428,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>(COMBIN($F$1,$F$2)*(D2^$F$2)*((1-D2)^($F$1-$F$2))^3)</f>
         <v>5.1603501278477293E-2</v>
       </c>
       <c r="B2">
-        <f>COMBIN($F$1,$G$2)*(D2^$G$2)*((1-D2)^($F$1-$G$2))</f>
-        <v>1.440894015E-3</v>
+        <f>(COMBIN($F$1,$G$2)*(D2^$G$2)*((1-D2)^($F$1-$G$2))^3)</f>
+        <v>1.3295773075741937E-3</v>
       </c>
       <c r="C2">
-        <f>COMBIN($F$1,$H$2)*(D2^$H$2)*((1-D2)^($F$1-$H$2))</f>
-        <v>1.9405980000000002E-5</v>
+        <f>(COMBIN($F$1,$H$2)*(D2^$H$2)*((1-D2)^($F$1-$H$2))^3)</f>
+        <v>1.8270344949672816E-5</v>
       </c>
       <c r="D2">
         <v>0.01</v>
@@ -431,18 +463,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A23" si="0">(COMBIN($F$1,$F$2)*(D3^$F$2)*((1-D3)^($F$1-$F$2))^3)</f>
         <v>8.8628292317448412E-2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B23" si="1">COMBIN($F$1,$G$2)*(D3^$G$2)*((1-D3)^($F$1-$G$2))</f>
-        <v>5.5342089599999993E-3</v>
+        <f t="shared" ref="B3:B23" si="1">(COMBIN($F$1,$G$2)*(D3^$G$2)*((1-D3)^($F$1-$G$2))^3)</f>
+        <v>4.7083003424087987E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C23" si="2">COMBIN($F$1,$H$2)*(D3^$H$2)*((1-D3)^($F$1-$H$2))</f>
-        <v>1.5059072000000003E-4</v>
+        <f t="shared" ref="C3:C23" si="2">(COMBIN($F$1,$H$2)*(D3^$H$2)*((1-D3)^($F$1-$H$2))^3)</f>
+        <v>1.3339964194082399E-4</v>
       </c>
       <c r="D3">
         <v>0.02</v>
@@ -451,341 +483,341 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>0.11398521404462204</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>1.1951452934999999E-2</v>
+        <v>9.3668718734384107E-3</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>4.9284342000000003E-4</v>
+        <v>4.1052477167346515E-4</v>
       </c>
       <c r="D4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>0.13010073116661816</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>2.0384317440000001E-2</v>
+        <v>1.4705034175914415E-2</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>1.1324620800000002E-3</v>
+        <v>8.8644351465533484E-4</v>
       </c>
       <c r="D5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>0.13898736904792602</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>3.0543984375000003E-2</v>
+        <v>2.0263503287348886E-2</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>2.1434374999999999E-3</v>
+        <v>1.575623524311523E-3</v>
       </c>
       <c r="D6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>0.14230504755348536</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>4.2160443839999999E-2</v>
+        <v>2.5699696999969678E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>3.5881228799999995E-3</v>
+        <v>2.4753375456276231E-3</v>
       </c>
       <c r="D7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>0.14141436206167782</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>5.4981822734999991E-2</v>
+        <v>3.0766827864733722E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>5.5178890200000006E-3</v>
+        <v>3.5700200293010218E-3</v>
       </c>
       <c r="D8">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>0.13742275395369843</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>6.8773724160000008E-2</v>
+        <v>3.5295973214868714E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>7.973765120000002E-3</v>
+        <v>4.8349323600543424E-3</v>
       </c>
       <c r="D9">
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>0.1312244147839092</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>8.3318577615000014E-2</v>
+        <v>3.9180771720752995E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>1.0987065180000002E-2</v>
+        <v>6.2392164858923174E-3</v>
       </c>
       <c r="D10">
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0.12353467925678953</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>9.841500000000003E-2</v>
+        <v>4.2364430472150029E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>1.4580000000000004E-2</v>
+        <v>7.7484097800000042E-3</v>
       </c>
       <c r="D11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0.11491958135525958</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>0.11387716741500001</v>
+        <v>4.4828758247095098E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>1.8766274780000002E-2</v>
+        <v>9.3264874666932566E-3</v>
       </c>
       <c r="D12">
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0.10582117480808105</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>0.12953419776</v>
+        <v>4.65849696574831E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>2.3551672319999998E-2</v>
+        <v>1.093749287600561E-2</v>
       </c>
       <c r="D13">
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9.6579152923291639E-2</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>0.14522954413500003</v>
+        <v>4.7666031438079681E-2</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>2.8934621820000006E-2</v>
+        <v>1.2546810137438722E-2</v>
       </c>
       <c r="D14">
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8.744924306703257E-2</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.16082039903999998</v>
+        <v>4.8120346437202706E-2</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>3.4906753280000008E-2</v>
+        <v>1.4122128662064101E-2</v>
       </c>
       <c r="D15">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>7.8618797191126466E-2</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.17617710937499995</v>
+        <v>4.8006593033458063E-2</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>4.1453437499999995E-2</v>
+        <v>1.5634143874116203E-2</v>
       </c>
       <c r="D16">
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>7.0219951305952863E-2</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.19118260223999994</v>
+        <v>4.7389557894633998E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>4.8554311680000004E-2</v>
+        <v>1.7057034119653754E-2</v>
       </c>
       <c r="D17">
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>6.2340683191963099E-2</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>0.20573182153500003</v>
+        <v>4.6336818354709583E-2</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>5.6183790620000007E-2</v>
+        <v>1.8368749482588521E-2</v>
       </c>
       <c r="D18">
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>5.5034058512494204E-2</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>0.21973117536000006</v>
+        <v>4.4916147347365792E-2</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>6.4311563520000004E-2</v>
+        <v>1.9551144359788348E-2</v>
       </c>
       <c r="D19">
         <v>0.18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>4.832592043374654E-2</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>0.23309799421500008</v>
+        <v>4.3193528926126511E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>7.2903076380000029E-2</v>
+        <v>2.0589982070042364E-2</v>
       </c>
       <c r="D20">
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>4.2221246506598482E-2</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>0.24576000000000015</v>
+        <v>4.123168604160006E-2</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>8.1920000000000034E-2</v>
+        <v>2.147483648000002E-2</v>
       </c>
       <c r="D21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>3.6709368579507483E-2</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>0.25765478581500006</v>
+        <v>3.9089034547452488E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>9.1320683580000006E-2</v>
+        <v>2.2198912607900578E-2</v>
       </c>
       <c r="D22">
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>3.1768226578887566E-2</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>0.26872930656000005</v>
+        <v>3.6818988474157009E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>0.10106059392</v>
+        <v>2.275880539769309E-2</v>
       </c>
       <c r="D23">
         <v>0.22</v>
@@ -797,24 +829,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
